--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H2">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I2">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J2">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08987265085018</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N2">
-        <v>1.08987265085018</v>
+        <v>3.905762</v>
       </c>
       <c r="O2">
-        <v>0.02917884055449863</v>
+        <v>0.03359020411433435</v>
       </c>
       <c r="P2">
-        <v>0.02917884055449863</v>
+        <v>0.03405758655206657</v>
       </c>
       <c r="Q2">
-        <v>50.20439213731004</v>
+        <v>60.11961278756766</v>
       </c>
       <c r="R2">
-        <v>50.20439213731004</v>
+        <v>360.717676725406</v>
       </c>
       <c r="S2">
-        <v>0.004432415445151132</v>
+        <v>0.004996512356367745</v>
       </c>
       <c r="T2">
-        <v>0.004432415445151132</v>
+        <v>0.003751611976320254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H3">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I3">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J3">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.9467135132668</v>
+        <v>16.81990266666667</v>
       </c>
       <c r="N3">
-        <v>15.9467135132668</v>
+        <v>50.459708</v>
       </c>
       <c r="O3">
-        <v>0.4269366798120015</v>
+        <v>0.4339618981570587</v>
       </c>
       <c r="P3">
-        <v>0.4269366798120015</v>
+        <v>0.4400001517250683</v>
       </c>
       <c r="Q3">
-        <v>734.5767029724667</v>
+        <v>776.7032672072007</v>
       </c>
       <c r="R3">
-        <v>734.5767029724667</v>
+        <v>4660.219603243204</v>
       </c>
       <c r="S3">
-        <v>0.0648538700557965</v>
+        <v>0.06455143823937771</v>
       </c>
       <c r="T3">
-        <v>0.0648538700557965</v>
+        <v>0.04846819771773676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H4">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I4">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J4">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.8927064513015</v>
+        <v>18.90820766666667</v>
       </c>
       <c r="N4">
-        <v>18.8927064513015</v>
+        <v>56.724623</v>
       </c>
       <c r="O4">
-        <v>0.5058088839603833</v>
+        <v>0.4878412112357755</v>
       </c>
       <c r="P4">
-        <v>0.5058088839603833</v>
+        <v>0.494629154939765</v>
       </c>
       <c r="Q4">
-        <v>870.282268736931</v>
+        <v>873.1362459568082</v>
       </c>
       <c r="R4">
-        <v>870.282268736931</v>
+        <v>5238.81747574085</v>
       </c>
       <c r="S4">
-        <v>0.07683496214913885</v>
+        <v>0.07256593712822287</v>
       </c>
       <c r="T4">
-        <v>0.07683496214913885</v>
+        <v>0.05448585320842678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H5">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I5">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J5">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.42217955204397</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N5">
-        <v>1.42217955204397</v>
+        <v>0.399619</v>
       </c>
       <c r="O5">
-        <v>0.03807559567311664</v>
+        <v>0.00343678999846027</v>
       </c>
       <c r="P5">
-        <v>0.03807559567311664</v>
+        <v>0.003484610347571176</v>
       </c>
       <c r="Q5">
-        <v>65.51192918253565</v>
+        <v>6.151152974132835</v>
       </c>
       <c r="R5">
-        <v>65.51192918253565</v>
+        <v>36.906917844797</v>
       </c>
       <c r="S5">
-        <v>0.005783878150663267</v>
+        <v>0.0005112193910789553</v>
       </c>
       <c r="T5">
-        <v>0.005783878150663267</v>
+        <v>0.0003838471024002804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.0421721451437</v>
+        <v>46.1776315</v>
       </c>
       <c r="H6">
-        <v>71.0421721451437</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I6">
-        <v>0.2342732497070081</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J6">
-        <v>0.2342732497070081</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.08987265085018</v>
+        <v>1.5957015</v>
       </c>
       <c r="N6">
-        <v>1.08987265085018</v>
+        <v>3.191403</v>
       </c>
       <c r="O6">
-        <v>0.02917884055449863</v>
+        <v>0.04116989649437126</v>
       </c>
       <c r="P6">
-        <v>0.02917884055449863</v>
+        <v>0.02782849643552908</v>
       </c>
       <c r="Q6">
-        <v>77.42692047798258</v>
+        <v>73.68571585099725</v>
       </c>
       <c r="R6">
-        <v>77.42692047798258</v>
+        <v>294.742863403989</v>
       </c>
       <c r="S6">
-        <v>0.00683582179938503</v>
+        <v>0.006123984714243633</v>
       </c>
       <c r="T6">
-        <v>0.00683582179938503</v>
+        <v>0.003065446823453244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H7">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I7">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J7">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.9467135132668</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N7">
-        <v>15.9467135132668</v>
+        <v>3.905762</v>
       </c>
       <c r="O7">
-        <v>0.4269366798120015</v>
+        <v>0.03359020411433435</v>
       </c>
       <c r="P7">
-        <v>0.4269366798120015</v>
+        <v>0.03405758655206657</v>
       </c>
       <c r="Q7">
-        <v>1132.889166558789</v>
+        <v>98.21232752166109</v>
       </c>
       <c r="R7">
-        <v>1132.889166558789</v>
+        <v>883.9109476949499</v>
       </c>
       <c r="S7">
-        <v>0.100019843398678</v>
+        <v>0.00816237971697471</v>
       </c>
       <c r="T7">
-        <v>0.100019843398678</v>
+        <v>0.009193036857734347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H8">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I8">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J8">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.8927064513015</v>
+        <v>16.81990266666667</v>
       </c>
       <c r="N8">
-        <v>18.8927064513015</v>
+        <v>50.459708</v>
       </c>
       <c r="O8">
-        <v>0.5058088839603833</v>
+        <v>0.4339618981570587</v>
       </c>
       <c r="P8">
-        <v>0.5058088839603833</v>
+        <v>0.4400001517250683</v>
       </c>
       <c r="Q8">
-        <v>1342.178904001028</v>
+        <v>1268.834447348145</v>
       </c>
       <c r="R8">
-        <v>1342.178904001028</v>
+        <v>11419.5100261333</v>
       </c>
       <c r="S8">
-        <v>0.1184974909760739</v>
+        <v>0.1054522259942276</v>
       </c>
       <c r="T8">
-        <v>0.1184974909760739</v>
+        <v>0.1187675939994584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H9">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I9">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J9">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.42217955204397</v>
+        <v>18.90820766666667</v>
       </c>
       <c r="N9">
-        <v>1.42217955204397</v>
+        <v>56.724623</v>
       </c>
       <c r="O9">
-        <v>0.03807559567311664</v>
+        <v>0.4878412112357755</v>
       </c>
       <c r="P9">
-        <v>0.03807559567311664</v>
+        <v>0.494629154939765</v>
       </c>
       <c r="Q9">
-        <v>101.0347245576111</v>
+        <v>1426.368850078103</v>
       </c>
       <c r="R9">
-        <v>101.0347245576111</v>
+        <v>12837.31965070292</v>
       </c>
       <c r="S9">
-        <v>0.008920093532871131</v>
+        <v>0.118544835099588</v>
       </c>
       <c r="T9">
-        <v>0.008920093532871131</v>
+        <v>0.1335133963564819</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.2947522561475</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H10">
-        <v>56.2947522561475</v>
+        <v>226.309475</v>
       </c>
       <c r="I10">
-        <v>0.1856412065435436</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J10">
-        <v>0.1856412065435436</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.08987265085018</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N10">
-        <v>1.08987265085018</v>
+        <v>0.399619</v>
       </c>
       <c r="O10">
-        <v>0.02917884055449863</v>
+        <v>0.00343678999846027</v>
       </c>
       <c r="P10">
-        <v>0.02917884055449863</v>
+        <v>0.003484610347571176</v>
       </c>
       <c r="Q10">
-        <v>61.35411087036162</v>
+        <v>10.04861845444722</v>
       </c>
       <c r="R10">
-        <v>61.35411087036162</v>
+        <v>90.437566090025</v>
       </c>
       <c r="S10">
-        <v>0.005416795166078805</v>
+        <v>0.0008351358890064774</v>
       </c>
       <c r="T10">
-        <v>0.005416795166078805</v>
+        <v>0.0009405878279452107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.2947522561475</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H11">
-        <v>56.2947522561475</v>
+        <v>226.309475</v>
       </c>
       <c r="I11">
-        <v>0.1856412065435436</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J11">
-        <v>0.1856412065435436</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.9467135132668</v>
+        <v>1.5957015</v>
       </c>
       <c r="N11">
-        <v>15.9467135132668</v>
+        <v>3.191403</v>
       </c>
       <c r="O11">
-        <v>0.4269366798120015</v>
+        <v>0.04116989649437126</v>
       </c>
       <c r="P11">
-        <v>0.4269366798120015</v>
+        <v>0.02782849643552908</v>
       </c>
       <c r="Q11">
-        <v>897.716286529114</v>
+        <v>120.3741229072375</v>
       </c>
       <c r="R11">
-        <v>897.716286529114</v>
+        <v>722.244737443425</v>
       </c>
       <c r="S11">
-        <v>0.0792570403579945</v>
+        <v>0.01000423596569334</v>
       </c>
       <c r="T11">
-        <v>0.0792570403579945</v>
+        <v>0.0075116418785589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H12">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I12">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J12">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.8927064513015</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N12">
-        <v>18.8927064513015</v>
+        <v>3.905762</v>
       </c>
       <c r="O12">
-        <v>0.5058088839603833</v>
+        <v>0.03359020411433435</v>
       </c>
       <c r="P12">
-        <v>0.5058088839603833</v>
+        <v>0.03405758655206657</v>
       </c>
       <c r="Q12">
-        <v>1063.560229124138</v>
+        <v>73.76426583127622</v>
       </c>
       <c r="R12">
-        <v>1063.560229124138</v>
+        <v>663.878392481486</v>
       </c>
       <c r="S12">
-        <v>0.09389897149884878</v>
+        <v>0.006130512965655416</v>
       </c>
       <c r="T12">
-        <v>0.09389897149884878</v>
+        <v>0.006904607921251792</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,122 +1216,122 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H13">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I13">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J13">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.42217955204397</v>
+        <v>16.81990266666667</v>
       </c>
       <c r="N13">
-        <v>1.42217955204397</v>
+        <v>50.459708</v>
       </c>
       <c r="O13">
-        <v>0.03807559567311664</v>
+        <v>0.4339618981570587</v>
       </c>
       <c r="P13">
-        <v>0.03807559567311664</v>
+        <v>0.4400001517250683</v>
       </c>
       <c r="Q13">
-        <v>80.06124554607412</v>
+        <v>952.9826227713251</v>
       </c>
       <c r="R13">
-        <v>80.06124554607412</v>
+        <v>8576.843604941925</v>
       </c>
       <c r="S13">
-        <v>0.0070683995206215</v>
+        <v>0.0792019314380104</v>
       </c>
       <c r="T13">
-        <v>0.0070683995206215</v>
+        <v>0.08920269580195937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.4204429588324</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H14">
-        <v>50.4204429588324</v>
+        <v>169.974103</v>
       </c>
       <c r="I14">
-        <v>0.1662697052604121</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J14">
-        <v>0.1662697052604121</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.08987265085018</v>
+        <v>18.90820766666667</v>
       </c>
       <c r="N14">
-        <v>1.08987265085018</v>
+        <v>56.724623</v>
       </c>
       <c r="O14">
-        <v>0.02917884055449863</v>
+        <v>0.4878412112357755</v>
       </c>
       <c r="P14">
-        <v>0.02917884055449863</v>
+        <v>0.494629154939765</v>
       </c>
       <c r="Q14">
-        <v>54.95186182458296</v>
+        <v>1071.301879159797</v>
       </c>
       <c r="R14">
-        <v>54.95186182458296</v>
+        <v>9641.716912438171</v>
       </c>
       <c r="S14">
-        <v>0.004851557218837047</v>
+        <v>0.08903538842699976</v>
       </c>
       <c r="T14">
-        <v>0.004851557218837047</v>
+        <v>0.1002778155186674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.4204429588324</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H15">
-        <v>50.4204429588324</v>
+        <v>169.974103</v>
       </c>
       <c r="I15">
-        <v>0.1662697052604121</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J15">
-        <v>0.1662697052604121</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>15.9467135132668</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N15">
-        <v>15.9467135132668</v>
+        <v>0.399619</v>
       </c>
       <c r="O15">
-        <v>0.4269366798120015</v>
+        <v>0.00343678999846027</v>
       </c>
       <c r="P15">
-        <v>0.4269366798120015</v>
+        <v>0.003484610347571176</v>
       </c>
       <c r="Q15">
-        <v>804.0403590765106</v>
+        <v>7.547209007417446</v>
       </c>
       <c r="R15">
-        <v>804.0403590765106</v>
+        <v>67.92488106675701</v>
       </c>
       <c r="S15">
-        <v>0.07098663591720043</v>
+        <v>0.0006272449424266641</v>
       </c>
       <c r="T15">
-        <v>0.07098663591720043</v>
+        <v>0.0007064466582661002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.4204429588324</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H16">
-        <v>50.4204429588324</v>
+        <v>169.974103</v>
       </c>
       <c r="I16">
-        <v>0.1662697052604121</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J16">
-        <v>0.1662697052604121</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.8927064513015</v>
+        <v>1.5957015</v>
       </c>
       <c r="N16">
-        <v>18.8927064513015</v>
+        <v>3.191403</v>
       </c>
       <c r="O16">
-        <v>0.5058088839603833</v>
+        <v>0.04116989649437126</v>
       </c>
       <c r="P16">
-        <v>0.5058088839603833</v>
+        <v>0.02782849643552908</v>
       </c>
       <c r="Q16">
-        <v>952.5786279658122</v>
+        <v>90.40931037275152</v>
       </c>
       <c r="R16">
-        <v>952.5786279658122</v>
+        <v>542.4558622365091</v>
       </c>
       <c r="S16">
-        <v>0.08410069405419092</v>
+        <v>0.007513874681866789</v>
       </c>
       <c r="T16">
-        <v>0.08410069405419092</v>
+        <v>0.005641763741289596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.4204429588324</v>
+        <v>51.445151</v>
       </c>
       <c r="H17">
-        <v>50.4204429588324</v>
+        <v>154.335453</v>
       </c>
       <c r="I17">
-        <v>0.1662697052604121</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J17">
-        <v>0.1662697052604121</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.42217955204397</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N17">
-        <v>1.42217955204397</v>
+        <v>3.905762</v>
       </c>
       <c r="O17">
-        <v>0.03807559567311664</v>
+        <v>0.03359020411433435</v>
       </c>
       <c r="P17">
-        <v>0.03807559567311664</v>
+        <v>0.03405758655206657</v>
       </c>
       <c r="Q17">
-        <v>71.70692298105081</v>
+        <v>66.97750528668733</v>
       </c>
       <c r="R17">
-        <v>71.70692298105081</v>
+        <v>602.797547580186</v>
       </c>
       <c r="S17">
-        <v>0.006330818070183727</v>
+        <v>0.005566468532425801</v>
       </c>
       <c r="T17">
-        <v>0.006330818070183727</v>
+        <v>0.006269342049793218</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.1124788605917</v>
+        <v>51.445151</v>
       </c>
       <c r="H18">
-        <v>33.1124788605917</v>
+        <v>154.335453</v>
       </c>
       <c r="I18">
-        <v>0.1091938463350561</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J18">
-        <v>0.1091938463350561</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.08987265085018</v>
+        <v>16.81990266666667</v>
       </c>
       <c r="N18">
-        <v>1.08987265085018</v>
+        <v>50.459708</v>
       </c>
       <c r="O18">
-        <v>0.02917884055449863</v>
+        <v>0.4339618981570587</v>
       </c>
       <c r="P18">
-        <v>0.02917884055449863</v>
+        <v>0.4400001517250683</v>
       </c>
       <c r="Q18">
-        <v>36.08838511201362</v>
+        <v>865.3024324919694</v>
       </c>
       <c r="R18">
-        <v>36.08838511201362</v>
+        <v>7787.721892427724</v>
       </c>
       <c r="S18">
-        <v>0.003186149831743027</v>
+        <v>0.07191487262598041</v>
       </c>
       <c r="T18">
-        <v>0.003186149831743027</v>
+        <v>0.08099550591784324</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,122 +1588,122 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.1124788605917</v>
+        <v>51.445151</v>
       </c>
       <c r="H19">
-        <v>33.1124788605917</v>
+        <v>154.335453</v>
       </c>
       <c r="I19">
-        <v>0.1091938463350561</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J19">
-        <v>0.1091938463350561</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.9467135132668</v>
+        <v>18.90820766666667</v>
       </c>
       <c r="N19">
-        <v>15.9467135132668</v>
+        <v>56.724623</v>
       </c>
       <c r="O19">
-        <v>0.4269366798120015</v>
+        <v>0.4878412112357755</v>
       </c>
       <c r="P19">
-        <v>0.4269366798120015</v>
+        <v>0.494629154939765</v>
       </c>
       <c r="Q19">
-        <v>528.035214103959</v>
+        <v>972.7355985510244</v>
       </c>
       <c r="R19">
-        <v>528.035214103959</v>
+        <v>8754.620386959219</v>
       </c>
       <c r="S19">
-        <v>0.04661885821019075</v>
+        <v>0.08084359183770462</v>
       </c>
       <c r="T19">
-        <v>0.04661885821019075</v>
+        <v>0.09105164734373665</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.1124788605917</v>
+        <v>51.445151</v>
       </c>
       <c r="H20">
-        <v>33.1124788605917</v>
+        <v>154.335453</v>
       </c>
       <c r="I20">
-        <v>0.1091938463350561</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J20">
-        <v>0.1091938463350561</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>18.8927064513015</v>
+        <v>0.1332063333333333</v>
       </c>
       <c r="N20">
-        <v>18.8927064513015</v>
+        <v>0.399619</v>
       </c>
       <c r="O20">
-        <v>0.5058088839603833</v>
+        <v>0.00343678999846027</v>
       </c>
       <c r="P20">
-        <v>0.5058088839603833</v>
+        <v>0.003484610347571176</v>
       </c>
       <c r="Q20">
-        <v>625.5843429880854</v>
+        <v>6.852819932489668</v>
       </c>
       <c r="R20">
-        <v>625.5843429880854</v>
+        <v>61.675379392407</v>
       </c>
       <c r="S20">
-        <v>0.05523121755007633</v>
+        <v>0.0005695345974638155</v>
       </c>
       <c r="T20">
-        <v>0.05523121755007633</v>
+        <v>0.0006414492743276001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.1124788605917</v>
+        <v>51.445151</v>
       </c>
       <c r="H21">
-        <v>33.1124788605917</v>
+        <v>154.335453</v>
       </c>
       <c r="I21">
-        <v>0.1091938463350561</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J21">
-        <v>0.1091938463350561</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.42217955204397</v>
+        <v>1.5957015</v>
       </c>
       <c r="N21">
-        <v>1.42217955204397</v>
+        <v>3.191403</v>
       </c>
       <c r="O21">
-        <v>0.03807559567311664</v>
+        <v>0.04116989649437126</v>
       </c>
       <c r="P21">
-        <v>0.03807559567311664</v>
+        <v>0.02782849643552908</v>
       </c>
       <c r="Q21">
-        <v>47.09189035302173</v>
+        <v>82.09110461842651</v>
       </c>
       <c r="R21">
-        <v>47.09189035302173</v>
+        <v>492.5466277105591</v>
       </c>
       <c r="S21">
-        <v>0.004157620743046027</v>
+        <v>0.006822552567382231</v>
       </c>
       <c r="T21">
-        <v>0.004157620743046027</v>
+        <v>0.005122687205655702</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.3106134503266</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H22">
-        <v>46.3106134503266</v>
+        <v>101.979134</v>
       </c>
       <c r="I22">
-        <v>0.1527168663532303</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J22">
-        <v>0.1527168663532303</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.08987265085018</v>
+        <v>1.301920666666667</v>
       </c>
       <c r="N22">
-        <v>1.08987265085018</v>
+        <v>3.905762</v>
       </c>
       <c r="O22">
-        <v>0.02917884055449863</v>
+        <v>0.03359020411433435</v>
       </c>
       <c r="P22">
-        <v>0.02917884055449863</v>
+        <v>0.03405758655206657</v>
       </c>
       <c r="Q22">
-        <v>50.47267104360544</v>
+        <v>44.25624737445644</v>
       </c>
       <c r="R22">
-        <v>50.47267104360544</v>
+        <v>398.306226370108</v>
       </c>
       <c r="S22">
-        <v>0.004456101093303583</v>
+        <v>0.003678115619844224</v>
       </c>
       <c r="T22">
-        <v>0.004456101093303583</v>
+        <v>0.004142548329369903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.3106134503266</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H23">
-        <v>46.3106134503266</v>
+        <v>101.979134</v>
       </c>
       <c r="I23">
-        <v>0.1527168663532303</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J23">
-        <v>0.1527168663532303</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.9467135132668</v>
+        <v>16.81990266666667</v>
       </c>
       <c r="N23">
-        <v>15.9467135132668</v>
+        <v>50.459708</v>
       </c>
       <c r="O23">
-        <v>0.4269366798120015</v>
+        <v>0.4339618981570587</v>
       </c>
       <c r="P23">
-        <v>0.4269366798120015</v>
+        <v>0.4400001517250683</v>
       </c>
       <c r="Q23">
-        <v>738.5020853159984</v>
+        <v>571.7597026369858</v>
       </c>
       <c r="R23">
-        <v>738.5020853159984</v>
+        <v>5145.837323732872</v>
       </c>
       <c r="S23">
-        <v>0.06520043187214132</v>
+        <v>0.04751867629609244</v>
       </c>
       <c r="T23">
-        <v>0.06520043187214132</v>
+        <v>0.05351882144275385</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,114 +1901,486 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.3106134503266</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H24">
-        <v>46.3106134503266</v>
+        <v>101.979134</v>
       </c>
       <c r="I24">
-        <v>0.1527168663532303</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J24">
-        <v>0.1527168663532303</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.8927064513015</v>
+        <v>18.90820766666667</v>
       </c>
       <c r="N24">
-        <v>18.8927064513015</v>
+        <v>56.724623</v>
       </c>
       <c r="O24">
-        <v>0.5058088839603833</v>
+        <v>0.4878412112357755</v>
       </c>
       <c r="P24">
-        <v>0.5058088839603833</v>
+        <v>0.494629154939765</v>
       </c>
       <c r="Q24">
-        <v>874.9328254967154</v>
+        <v>642.7475477796091</v>
       </c>
       <c r="R24">
-        <v>874.9328254967154</v>
+        <v>5784.727930016482</v>
       </c>
       <c r="S24">
-        <v>0.07724554773205443</v>
+        <v>0.05341844226199009</v>
       </c>
       <c r="T24">
-        <v>0.07724554773205443</v>
+        <v>0.06016354612564401</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.99304466666667</v>
+      </c>
+      <c r="H25">
+        <v>101.979134</v>
+      </c>
+      <c r="I25">
+        <v>0.1094996507709406</v>
+      </c>
+      <c r="J25">
+        <v>0.1216336431542751</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1332063333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.399619</v>
+      </c>
+      <c r="O25">
+        <v>0.00343678999846027</v>
+      </c>
+      <c r="P25">
+        <v>0.003484610347571176</v>
+      </c>
+      <c r="Q25">
+        <v>4.52808883888289</v>
+      </c>
+      <c r="R25">
+        <v>40.752799549946</v>
+      </c>
+      <c r="S25">
+        <v>0.0003763273046044612</v>
+      </c>
+      <c r="T25">
+        <v>0.0004238458515481669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.99304466666667</v>
+      </c>
+      <c r="H26">
+        <v>101.979134</v>
+      </c>
+      <c r="I26">
+        <v>0.1094996507709406</v>
+      </c>
+      <c r="J26">
+        <v>0.1216336431542751</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.5957015</v>
+      </c>
+      <c r="N26">
+        <v>3.191403</v>
+      </c>
+      <c r="O26">
+        <v>0.04116989649437126</v>
+      </c>
+      <c r="P26">
+        <v>0.02782849643552908</v>
+      </c>
+      <c r="Q26">
+        <v>54.24275236416701</v>
+      </c>
+      <c r="R26">
+        <v>325.456514185002</v>
+      </c>
+      <c r="S26">
+        <v>0.004508089288409426</v>
+      </c>
+      <c r="T26">
+        <v>0.00338488140495916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>46.3106134503266</v>
-      </c>
-      <c r="H25">
-        <v>46.3106134503266</v>
-      </c>
-      <c r="I25">
-        <v>0.1527168663532303</v>
-      </c>
-      <c r="J25">
-        <v>0.1527168663532303</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.42217955204397</v>
-      </c>
-      <c r="N25">
-        <v>1.42217955204397</v>
-      </c>
-      <c r="O25">
-        <v>0.03807559567311664</v>
-      </c>
-      <c r="P25">
-        <v>0.03807559567311664</v>
-      </c>
-      <c r="Q25">
-        <v>65.86200749166693</v>
-      </c>
-      <c r="R25">
-        <v>65.86200749166693</v>
-      </c>
-      <c r="S25">
-        <v>0.005814785655730989</v>
-      </c>
-      <c r="T25">
-        <v>0.005814785655730989</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>46.729401</v>
+      </c>
+      <c r="H27">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J27">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.301920666666667</v>
+      </c>
+      <c r="N27">
+        <v>3.905762</v>
+      </c>
+      <c r="O27">
+        <v>0.03359020411433435</v>
+      </c>
+      <c r="P27">
+        <v>0.03405758655206657</v>
+      </c>
+      <c r="Q27">
+        <v>60.83797290285398</v>
+      </c>
+      <c r="R27">
+        <v>365.0278374171239</v>
+      </c>
+      <c r="S27">
+        <v>0.005056214923066447</v>
+      </c>
+      <c r="T27">
+        <v>0.00379643941759706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>46.729401</v>
+      </c>
+      <c r="H28">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J28">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.81990266666667</v>
+      </c>
+      <c r="N28">
+        <v>50.459708</v>
+      </c>
+      <c r="O28">
+        <v>0.4339618981570587</v>
+      </c>
+      <c r="P28">
+        <v>0.4400001517250683</v>
+      </c>
+      <c r="Q28">
+        <v>785.983976491636</v>
+      </c>
+      <c r="R28">
+        <v>4715.903858949816</v>
+      </c>
+      <c r="S28">
+        <v>0.06532275356337007</v>
+      </c>
+      <c r="T28">
+        <v>0.04904733684531667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>46.729401</v>
+      </c>
+      <c r="H29">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J29">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>18.90820766666667</v>
+      </c>
+      <c r="N29">
+        <v>56.724623</v>
+      </c>
+      <c r="O29">
+        <v>0.4878412112357755</v>
+      </c>
+      <c r="P29">
+        <v>0.494629154939765</v>
+      </c>
+      <c r="Q29">
+        <v>883.5692182469409</v>
+      </c>
+      <c r="R29">
+        <v>5301.415309481646</v>
+      </c>
+      <c r="S29">
+        <v>0.07343301648127004</v>
+      </c>
+      <c r="T29">
+        <v>0.05513689638680821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>46.729401</v>
+      </c>
+      <c r="H30">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J30">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1332063333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.399619</v>
+      </c>
+      <c r="O30">
+        <v>0.00343678999846027</v>
+      </c>
+      <c r="P30">
+        <v>0.003484610347571176</v>
+      </c>
+      <c r="Q30">
+        <v>6.224652166073</v>
+      </c>
+      <c r="R30">
+        <v>37.347912996438</v>
+      </c>
+      <c r="S30">
+        <v>0.0005173278738798961</v>
+      </c>
+      <c r="T30">
+        <v>0.0003884336330838181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>46.729401</v>
+      </c>
+      <c r="H31">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J31">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.5957015</v>
+      </c>
+      <c r="N31">
+        <v>3.191403</v>
+      </c>
+      <c r="O31">
+        <v>0.04116989649437126</v>
+      </c>
+      <c r="P31">
+        <v>0.02782849643552908</v>
+      </c>
+      <c r="Q31">
+        <v>74.56617526980151</v>
+      </c>
+      <c r="R31">
+        <v>298.264701079206</v>
+      </c>
+      <c r="S31">
+        <v>0.006197159276775837</v>
+      </c>
+      <c r="T31">
+        <v>0.003102075381612477</v>
       </c>
     </row>
   </sheetData>
